--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -100,10 +100,10 @@
     <t>09/01/21 10:56:31</t>
   </si>
   <si>
-    <t>26aa6bb0ae1695775b81c56431af460da7c56b7d</t>
-  </si>
-  <si>
-    <t>Create om.md</t>
+    <t>7de1c5f374b539fe14622599c57f4d948ec860a0</t>
+  </si>
+  <si>
+    <t>Delete om.md</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Test Case Script Location</t>
+  </si>
+  <si>
+    <t>007</t>
   </si>
   <si>
     <t>N/A</t>
@@ -100,10 +103,13 @@
     <t>09/01/21 10:56:31</t>
   </si>
   <si>
-    <t>7de1c5f374b539fe14622599c57f4d948ec860a0</t>
-  </si>
-  <si>
-    <t>Delete om.md</t>
+    <t>09/01/21 10:59:57</t>
+  </si>
+  <si>
+    <t>9e430318dcff65024ddfafed53ed1a5cfdb621c4</t>
+  </si>
+  <si>
+    <t>Update 23.md</t>
   </si>
   <si>
     <t>Not executed</t>
@@ -571,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,19 +599,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -613,19 +619,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,19 +639,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,7 +667,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
@@ -671,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -106,7 +106,7 @@
     <t>09/01/21 10:59:57</t>
   </si>
   <si>
-    <t>9e430318dcff65024ddfafed53ed1a5cfdb621c4</t>
+    <t>58900088548ebdec12294c28688c0d3ab355cb69</t>
   </si>
   <si>
     <t>Update 23.md</t>
@@ -667,12 +667,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="n">
+        <v>44907.50693287037</v>
+      </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,29 +87,35 @@
     <t>007</t>
   </si>
   <si>
+    <t>What is appear in test?</t>
+  </si>
+  <si>
+    <t>No more conditions</t>
+  </si>
+  <si>
+    <t>hung-logigear&lt;hung.minh.tran@logigear.com&gt;</t>
+  </si>
+  <si>
+    <t>Hung Tran&lt;hung.minh.tran@logigear.com&gt;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09/01/21 10:56:31</t>
+  </si>
+  <si>
+    <t>10/19/21 02:37:59</t>
+  </si>
+  <si>
+    <t>85bb677454f57b16494a51ebf42144f5675d2991</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>N/A
-N/A</t>
-  </si>
-  <si>
-    <t>hung-logigear&lt;hung.minh.tran@logigear.com&gt;</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>09/01/21 10:56:31</t>
-  </si>
-  <si>
-    <t>09/01/21 10:59:57</t>
-  </si>
-  <si>
-    <t>58900088548ebdec12294c28688c0d3ab355cb69</t>
-  </si>
-  <si>
-    <t>Update 23.md</t>
+    <t xml:space="preserve">-
+</t>
   </si>
   <si>
     <t>Not executed</t>
@@ -605,13 +611,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -619,19 +625,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -639,19 +645,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -679,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -108,13 +108,13 @@
     <t>10/19/21 02:37:59</t>
   </si>
   <si>
-    <t>85bb677454f57b16494a51ebf42144f5675d2991</t>
+    <t>9c6942a543b4adb92b0b99afff8d1c338e1b6b7b</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">-
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/hung-logigear/TestManagementSolution into main
 </t>
   </si>
   <si>

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -108,13 +108,13 @@
     <t>10/19/21 02:37:59</t>
   </si>
   <si>
-    <t>9c6942a543b4adb92b0b99afff8d1c338e1b6b7b</t>
+    <t>b38da37c172f2508984402b0ce02706001658482</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/hung-logigear/TestManagementSolution into main
+    <t xml:space="preserve">5
 </t>
   </si>
   <si>

--- a/Reports/1/23.xlsx
+++ b/Reports/1/23.xlsx
@@ -108,13 +108,13 @@
     <t>10/19/21 02:37:59</t>
   </si>
   <si>
-    <t>b38da37c172f2508984402b0ce02706001658482</t>
+    <t>da2a6915d25e7e8848caf923ffd7f14ef3a43136</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">5
+    <t xml:space="preserve">20
 </t>
   </si>
   <si>
